--- a/dataset/Work_Residence/Work_Residence.xlsx
+++ b/dataset/Work_Residence/Work_Residence.xlsx
@@ -19,13 +19,13 @@
     <t>Geographic Area Name</t>
   </si>
   <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>Total:Worked in county of residence</t>
-  </si>
-  <si>
-    <t>Total:Worked outside county of residence</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>In_county_of_residence</t>
+  </si>
+  <si>
+    <t>Outside_county_of_residence</t>
   </si>
   <si>
     <t>Albany County, New York</t>
@@ -150,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,21 +174,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -203,6 +196,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -212,6 +220,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -219,7 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,10 +286,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,21 +307,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,6 +317,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,174 +498,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,51 +508,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,6 +555,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -608,12 +593,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,130 +631,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>

--- a/dataset/Work_Residence/Work_Residence.xlsx
+++ b/dataset/Work_Residence/Work_Residence.xlsx
@@ -7,30 +7,39 @@
     <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="data_with_overlays" sheetId="1" r:id="rId1"/>
+    <sheet name="ACSDT5Y2019.B08008_data_with_ov" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Geographic Area Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>Geographic</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>In_county_of_residence</t>
-  </si>
-  <si>
-    <t>Outside_county_of_residence</t>
+    <t>With_Residence</t>
+  </si>
+  <si>
+    <t>Work_in_PoR</t>
+  </si>
+  <si>
+    <t>Worked_outside_PoR</t>
+  </si>
+  <si>
+    <t>No_Residence</t>
   </si>
   <si>
     <t>Albany County, New York</t>
   </si>
   <si>
+    <t>Allegany County, New York</t>
+  </si>
+  <si>
     <t>Bronx County, New York</t>
   </si>
   <si>
@@ -49,21 +58,57 @@
     <t>Chemung County, New York</t>
   </si>
   <si>
+    <t>Chenango County, New York</t>
+  </si>
+  <si>
     <t>Clinton County, New York</t>
   </si>
   <si>
+    <t>Columbia County, New York</t>
+  </si>
+  <si>
+    <t>Cortland County, New York</t>
+  </si>
+  <si>
+    <t>Delaware County, New York</t>
+  </si>
+  <si>
     <t>Dutchess County, New York</t>
   </si>
   <si>
     <t>Erie County, New York</t>
   </si>
   <si>
+    <t>Essex County, New York</t>
+  </si>
+  <si>
+    <t>Franklin County, New York</t>
+  </si>
+  <si>
+    <t>Fulton County, New York</t>
+  </si>
+  <si>
+    <t>Genesee County, New York</t>
+  </si>
+  <si>
+    <t>Greene County, New York</t>
+  </si>
+  <si>
+    <t>Hamilton County, New York</t>
+  </si>
+  <si>
+    <t>Herkimer County, New York</t>
+  </si>
+  <si>
     <t>Jefferson County, New York</t>
   </si>
   <si>
     <t>Kings County, New York</t>
   </si>
   <si>
+    <t>Lewis County, New York</t>
+  </si>
+  <si>
     <t>Livingston County, New York</t>
   </si>
   <si>
@@ -73,6 +118,9 @@
     <t>Monroe County, New York</t>
   </si>
   <si>
+    <t>Montgomery County, New York</t>
+  </si>
+  <si>
     <t>Nassau County, New York</t>
   </si>
   <si>
@@ -94,9 +142,15 @@
     <t>Orange County, New York</t>
   </si>
   <si>
+    <t>Orleans County, New York</t>
+  </si>
+  <si>
     <t>Oswego County, New York</t>
   </si>
   <si>
+    <t>Otsego County, New York</t>
+  </si>
+  <si>
     <t>Putnam County, New York</t>
   </si>
   <si>
@@ -121,6 +175,15 @@
     <t>Schenectady County, New York</t>
   </si>
   <si>
+    <t>Schoharie County, New York</t>
+  </si>
+  <si>
+    <t>Schuyler County, New York</t>
+  </si>
+  <si>
+    <t>Seneca County, New York</t>
+  </si>
+  <si>
     <t>Steuben County, New York</t>
   </si>
   <si>
@@ -130,6 +193,9 @@
     <t>Sullivan County, New York</t>
   </si>
   <si>
+    <t>Tioga County, New York</t>
+  </si>
+  <si>
     <t>Tompkins County, New York</t>
   </si>
   <si>
@@ -139,10 +205,19 @@
     <t>Warren County, New York</t>
   </si>
   <si>
+    <t>Washington County, New York</t>
+  </si>
+  <si>
     <t>Wayne County, New York</t>
   </si>
   <si>
     <t>Westchester County, New York</t>
+  </si>
+  <si>
+    <t>Wyoming County, New York</t>
+  </si>
+  <si>
+    <t>Yates County, New York</t>
   </si>
 </sst>
 </file>
@@ -150,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,9 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,6 +260,103 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,103 +382,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,13 +392,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,19 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,139 +542,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,11 +586,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,15 +660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -570,21 +675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -593,35 +683,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,130 +706,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,21 +1156,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="36.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="36.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="39.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="37.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="19.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="47.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="71.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="77.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1108,551 +1185,1251 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>158731</v>
+        <v>157933</v>
       </c>
       <c r="C2">
-        <v>124951</v>
+        <v>77968</v>
       </c>
       <c r="D2">
-        <v>33240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>32218</v>
+      </c>
+      <c r="E2">
+        <v>45750</v>
+      </c>
+      <c r="F2">
+        <v>79965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>580756</v>
+        <v>19545</v>
       </c>
       <c r="C3">
-        <v>259850</v>
+        <v>8541</v>
       </c>
       <c r="D3">
-        <v>311116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3683</v>
+      </c>
+      <c r="E3">
+        <v>4858</v>
+      </c>
+      <c r="F3">
+        <v>11004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>81565</v>
+        <v>582554</v>
       </c>
       <c r="C4">
-        <v>74342</v>
+        <v>582554</v>
       </c>
       <c r="D4">
-        <v>6218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>523684</v>
+      </c>
+      <c r="E4">
+        <v>58870</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>33028</v>
+        <v>84232</v>
       </c>
       <c r="C5">
-        <v>22458</v>
+        <v>41175</v>
       </c>
       <c r="D5">
-        <v>8886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>12572</v>
+      </c>
+      <c r="E5">
+        <v>28603</v>
+      </c>
+      <c r="F5">
+        <v>43057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>36333</v>
+        <v>32891</v>
       </c>
       <c r="C6">
-        <v>22160</v>
+        <v>16092</v>
       </c>
       <c r="D6">
-        <v>14041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>6504</v>
+      </c>
+      <c r="E6">
+        <v>9588</v>
+      </c>
+      <c r="F6">
+        <v>16799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>54709</v>
+        <v>35549</v>
       </c>
       <c r="C7">
-        <v>47502</v>
+        <v>16284</v>
       </c>
       <c r="D7">
-        <v>3763</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>7381</v>
+      </c>
+      <c r="E7">
+        <v>8903</v>
+      </c>
+      <c r="F7">
+        <v>19265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>36485</v>
+        <v>54703</v>
       </c>
       <c r="C8">
-        <v>27690</v>
+        <v>31842</v>
       </c>
       <c r="D8">
-        <v>7278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>11932</v>
+      </c>
+      <c r="E8">
+        <v>19910</v>
+      </c>
+      <c r="F8">
+        <v>22861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>34800</v>
+        <v>36723</v>
       </c>
       <c r="C9">
-        <v>32309</v>
+        <v>25973</v>
       </c>
       <c r="D9">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>6430</v>
+      </c>
+      <c r="E9">
+        <v>19543</v>
+      </c>
+      <c r="F9">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>147975</v>
+        <v>21140</v>
       </c>
       <c r="C10">
-        <v>94468</v>
+        <v>6515</v>
       </c>
       <c r="D10">
-        <v>48126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>2315</v>
+      </c>
+      <c r="E10">
+        <v>4200</v>
+      </c>
+      <c r="F10">
+        <v>14625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>451952</v>
+        <v>34916</v>
       </c>
       <c r="C11">
-        <v>422013</v>
+        <v>15316</v>
       </c>
       <c r="D11">
-        <v>27617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>6314</v>
+      </c>
+      <c r="E11">
+        <v>9002</v>
+      </c>
+      <c r="F11">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>49966</v>
+        <v>28927</v>
       </c>
       <c r="C12">
-        <v>46061</v>
+        <v>9520</v>
       </c>
       <c r="D12">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>2411</v>
+      </c>
+      <c r="E12">
+        <v>7109</v>
+      </c>
+      <c r="F12">
+        <v>19407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>1213500</v>
+        <v>22493</v>
       </c>
       <c r="C13">
-        <v>588578</v>
+        <v>13261</v>
       </c>
       <c r="D13">
-        <v>598550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>4885</v>
+      </c>
+      <c r="E13">
+        <v>8376</v>
+      </c>
+      <c r="F13">
+        <v>9232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>31127</v>
+        <v>19552</v>
       </c>
       <c r="C14">
-        <v>17186</v>
+        <v>6317</v>
       </c>
       <c r="D14">
-        <v>13710</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>2639</v>
+      </c>
+      <c r="E14">
+        <v>3678</v>
+      </c>
+      <c r="F14">
+        <v>13235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>33714</v>
+        <v>142352</v>
       </c>
       <c r="C15">
-        <v>15801</v>
+        <v>51845</v>
       </c>
       <c r="D15">
-        <v>17471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>9748</v>
+      </c>
+      <c r="E15">
+        <v>42097</v>
+      </c>
+      <c r="F15">
+        <v>90507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>363412</v>
+        <v>441864</v>
       </c>
       <c r="C16">
-        <v>337498</v>
+        <v>289557</v>
       </c>
       <c r="D16">
-        <v>24835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>92352</v>
+      </c>
+      <c r="E16">
+        <v>197205</v>
+      </c>
+      <c r="F16">
+        <v>152307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>686708</v>
+        <v>16919</v>
       </c>
       <c r="C17">
-        <v>385682</v>
+        <v>7059</v>
       </c>
       <c r="D17">
-        <v>295050</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>3117</v>
+      </c>
+      <c r="E17">
+        <v>3942</v>
+      </c>
+      <c r="F17">
+        <v>9860</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>909602</v>
+        <v>18859</v>
       </c>
       <c r="C18">
-        <v>785942</v>
+        <v>7320</v>
       </c>
       <c r="D18">
-        <v>91260</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>3517</v>
+      </c>
+      <c r="E18">
+        <v>3803</v>
+      </c>
+      <c r="F18">
+        <v>11539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>98556</v>
+        <v>24040</v>
       </c>
       <c r="C19">
-        <v>58214</v>
+        <v>11941</v>
       </c>
       <c r="D19">
-        <v>39768</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>3914</v>
+      </c>
+      <c r="E19">
+        <v>8027</v>
+      </c>
+      <c r="F19">
+        <v>12099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>100606</v>
+        <v>28903</v>
       </c>
       <c r="C20">
-        <v>86303</v>
+        <v>11782</v>
       </c>
       <c r="D20">
-        <v>13276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>3790</v>
+      </c>
+      <c r="E20">
+        <v>7992</v>
+      </c>
+      <c r="F20">
+        <v>17121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>222716</v>
+        <v>19999</v>
       </c>
       <c r="C21">
-        <v>206825</v>
+        <v>5819</v>
       </c>
       <c r="D21">
-        <v>14604</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>1464</v>
+      </c>
+      <c r="E21">
+        <v>4355</v>
+      </c>
+      <c r="F21">
+        <v>14180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>55685</v>
+        <v>1767</v>
       </c>
       <c r="C22">
-        <v>35015</v>
+        <v>529</v>
       </c>
       <c r="D22">
-        <v>20462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>306</v>
+      </c>
+      <c r="E22">
+        <v>223</v>
+      </c>
+      <c r="F22">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>182020</v>
+        <v>28042</v>
       </c>
       <c r="C23">
-        <v>118959</v>
+        <v>12718</v>
       </c>
       <c r="D23">
-        <v>52636</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>3516</v>
+      </c>
+      <c r="E23">
+        <v>9202</v>
+      </c>
+      <c r="F23">
+        <v>15324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>55147</v>
+        <v>51958</v>
       </c>
       <c r="C24">
-        <v>35412</v>
+        <v>32251</v>
       </c>
       <c r="D24">
-        <v>19312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>15308</v>
+      </c>
+      <c r="E24">
+        <v>16943</v>
+      </c>
+      <c r="F24">
+        <v>19707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>50913</v>
+        <v>1197935</v>
       </c>
       <c r="C25">
-        <v>16566</v>
+        <v>1197935</v>
       </c>
       <c r="D25">
-        <v>31389</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>1152049</v>
+      </c>
+      <c r="E25">
+        <v>45886</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>1105714</v>
+        <v>11754</v>
       </c>
       <c r="C26">
-        <v>486753</v>
+        <v>3128</v>
       </c>
       <c r="D26">
-        <v>600135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>1045</v>
+      </c>
+      <c r="E26">
+        <v>2083</v>
+      </c>
+      <c r="F26">
+        <v>8626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>80699</v>
+        <v>28667</v>
       </c>
       <c r="C27">
-        <v>35518</v>
+        <v>15410</v>
       </c>
       <c r="D27">
-        <v>41984</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>3949</v>
+      </c>
+      <c r="E27">
+        <v>11461</v>
+      </c>
+      <c r="F27">
+        <v>13257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>223101</v>
+        <v>33349</v>
       </c>
       <c r="C28">
-        <v>111516</v>
+        <v>13974</v>
       </c>
       <c r="D28">
-        <v>97841</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>4089</v>
+      </c>
+      <c r="E28">
+        <v>9885</v>
+      </c>
+      <c r="F28">
+        <v>19375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>146241</v>
+        <v>358706</v>
       </c>
       <c r="C29">
-        <v>92395</v>
+        <v>175705</v>
       </c>
       <c r="D29">
-        <v>37432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>60935</v>
+      </c>
+      <c r="E29">
+        <v>114770</v>
+      </c>
+      <c r="F29">
+        <v>183001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>42599</v>
+        <v>21234</v>
       </c>
       <c r="C30">
-        <v>38090</v>
+        <v>12100</v>
       </c>
       <c r="D30">
-        <v>4021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>3825</v>
+      </c>
+      <c r="E30">
+        <v>8275</v>
+      </c>
+      <c r="F30">
+        <v>9134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>121645</v>
+        <v>675702</v>
       </c>
       <c r="C31">
-        <v>70850</v>
+        <v>675344</v>
       </c>
       <c r="D31">
-        <v>49776</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>80276</v>
+      </c>
+      <c r="E31">
+        <v>595068</v>
+      </c>
+      <c r="F31">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>73622</v>
+        <v>887191</v>
       </c>
       <c r="C32">
-        <v>38578</v>
+        <v>887191</v>
       </c>
       <c r="D32">
-        <v>34604</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>833622</v>
+      </c>
+      <c r="E32">
+        <v>53569</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>42652</v>
+        <v>98856</v>
       </c>
       <c r="C33">
-        <v>32189</v>
+        <v>55956</v>
       </c>
       <c r="D33">
-        <v>9355</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>17315</v>
+      </c>
+      <c r="E33">
+        <v>38641</v>
+      </c>
+      <c r="F33">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>762025</v>
+        <v>100151</v>
       </c>
       <c r="C34">
-        <v>576824</v>
+        <v>53204</v>
       </c>
       <c r="D34">
-        <v>177743</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>21645</v>
+      </c>
+      <c r="E34">
+        <v>31559</v>
+      </c>
+      <c r="F34">
+        <v>46947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>34910</v>
+        <v>218911</v>
       </c>
       <c r="C35">
-        <v>24783</v>
+        <v>103139</v>
       </c>
       <c r="D35">
-        <v>9508</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>40176</v>
+      </c>
+      <c r="E35">
+        <v>62963</v>
+      </c>
+      <c r="F35">
+        <v>115772</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>49177</v>
+        <v>54024</v>
       </c>
       <c r="C36">
-        <v>45780</v>
+        <v>18642</v>
       </c>
       <c r="D36">
-        <v>3267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>5355</v>
+      </c>
+      <c r="E36">
+        <v>13287</v>
+      </c>
+      <c r="F36">
+        <v>35382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>87590</v>
+        <v>176767</v>
       </c>
       <c r="C37">
-        <v>60808</v>
+        <v>105295</v>
       </c>
       <c r="D37">
-        <v>25457</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>22358</v>
+      </c>
+      <c r="E37">
+        <v>82937</v>
+      </c>
+      <c r="F37">
+        <v>71472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>31333</v>
+        <v>17502</v>
       </c>
       <c r="C38">
-        <v>20894</v>
+        <v>6083</v>
       </c>
       <c r="D38">
-        <v>10349</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>1990</v>
+      </c>
+      <c r="E38">
+        <v>4093</v>
+      </c>
+      <c r="F38">
+        <v>11419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>45253</v>
+        <v>53051</v>
       </c>
       <c r="C39">
-        <v>23540</v>
+        <v>20474</v>
       </c>
       <c r="D39">
-        <v>21218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>6889</v>
+      </c>
+      <c r="E39">
+        <v>13585</v>
+      </c>
+      <c r="F39">
+        <v>32577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>475293</v>
+        <v>27257</v>
       </c>
       <c r="C40">
-        <v>286193</v>
+        <v>11375</v>
       </c>
       <c r="D40">
-        <v>163542</v>
+        <v>5186</v>
+      </c>
+      <c r="E40">
+        <v>6189</v>
+      </c>
+      <c r="F40">
+        <v>15882</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>49793</v>
+      </c>
+      <c r="C41">
+        <v>16482</v>
+      </c>
+      <c r="D41">
+        <v>1742</v>
+      </c>
+      <c r="E41">
+        <v>14740</v>
+      </c>
+      <c r="F41">
+        <v>33311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>1101747</v>
+      </c>
+      <c r="C42">
+        <v>1101747</v>
+      </c>
+      <c r="D42">
+        <v>984736</v>
+      </c>
+      <c r="E42">
+        <v>117011</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>79756</v>
+      </c>
+      <c r="C43">
+        <v>39247</v>
+      </c>
+      <c r="D43">
+        <v>9437</v>
+      </c>
+      <c r="E43">
+        <v>29810</v>
+      </c>
+      <c r="F43">
+        <v>40509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>211171</v>
+      </c>
+      <c r="C44">
+        <v>211171</v>
+      </c>
+      <c r="D44">
+        <v>194599</v>
+      </c>
+      <c r="E44">
+        <v>16572</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>144319</v>
+      </c>
+      <c r="C45">
+        <v>137401</v>
+      </c>
+      <c r="D45">
+        <v>21944</v>
+      </c>
+      <c r="E45">
+        <v>115457</v>
+      </c>
+      <c r="F45">
+        <v>6918</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>42818</v>
+      </c>
+      <c r="C46">
+        <v>19431</v>
+      </c>
+      <c r="D46">
+        <v>9188</v>
+      </c>
+      <c r="E46">
+        <v>10243</v>
+      </c>
+      <c r="F46">
+        <v>23387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>119605</v>
+      </c>
+      <c r="C47">
+        <v>30673</v>
+      </c>
+      <c r="D47">
+        <v>8582</v>
+      </c>
+      <c r="E47">
+        <v>22091</v>
+      </c>
+      <c r="F47">
+        <v>88932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>71932</v>
+      </c>
+      <c r="C48">
+        <v>48367</v>
+      </c>
+      <c r="D48">
+        <v>13422</v>
+      </c>
+      <c r="E48">
+        <v>34945</v>
+      </c>
+      <c r="F48">
+        <v>23565</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>13883</v>
+      </c>
+      <c r="C49">
+        <v>3732</v>
+      </c>
+      <c r="D49">
+        <v>1298</v>
+      </c>
+      <c r="E49">
+        <v>2434</v>
+      </c>
+      <c r="F49">
+        <v>10151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>8130</v>
+      </c>
+      <c r="C50">
+        <v>1840</v>
+      </c>
+      <c r="D50">
+        <v>522</v>
+      </c>
+      <c r="E50">
+        <v>1318</v>
+      </c>
+      <c r="F50">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>14992</v>
+      </c>
+      <c r="C51">
+        <v>6144</v>
+      </c>
+      <c r="D51">
+        <v>1336</v>
+      </c>
+      <c r="E51">
+        <v>4808</v>
+      </c>
+      <c r="F51">
+        <v>8848</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>42052</v>
+      </c>
+      <c r="C52">
+        <v>19856</v>
+      </c>
+      <c r="D52">
+        <v>6147</v>
+      </c>
+      <c r="E52">
+        <v>13709</v>
+      </c>
+      <c r="F52">
+        <v>22196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>739441</v>
+      </c>
+      <c r="C53">
+        <v>739163</v>
+      </c>
+      <c r="D53">
+        <v>90648</v>
+      </c>
+      <c r="E53">
+        <v>648515</v>
+      </c>
+      <c r="F53">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>32218</v>
+      </c>
+      <c r="C54">
+        <v>8590</v>
+      </c>
+      <c r="D54">
+        <v>2474</v>
+      </c>
+      <c r="E54">
+        <v>6116</v>
+      </c>
+      <c r="F54">
+        <v>23628</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>22388</v>
+      </c>
+      <c r="C55">
+        <v>5413</v>
+      </c>
+      <c r="D55">
+        <v>1357</v>
+      </c>
+      <c r="E55">
+        <v>4056</v>
+      </c>
+      <c r="F55">
+        <v>16975</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>49101</v>
+      </c>
+      <c r="C56">
+        <v>26372</v>
+      </c>
+      <c r="D56">
+        <v>11640</v>
+      </c>
+      <c r="E56">
+        <v>14732</v>
+      </c>
+      <c r="F56">
+        <v>22729</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>85533</v>
+      </c>
+      <c r="C57">
+        <v>42106</v>
+      </c>
+      <c r="D57">
+        <v>11044</v>
+      </c>
+      <c r="E57">
+        <v>31062</v>
+      </c>
+      <c r="F57">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>31330</v>
+      </c>
+      <c r="C58">
+        <v>18705</v>
+      </c>
+      <c r="D58">
+        <v>4539</v>
+      </c>
+      <c r="E58">
+        <v>14166</v>
+      </c>
+      <c r="F58">
+        <v>12625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>28433</v>
+      </c>
+      <c r="C59">
+        <v>9564</v>
+      </c>
+      <c r="D59">
+        <v>1528</v>
+      </c>
+      <c r="E59">
+        <v>8036</v>
+      </c>
+      <c r="F59">
+        <v>18869</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>43773</v>
+      </c>
+      <c r="C60">
+        <v>14262</v>
+      </c>
+      <c r="D60">
+        <v>3023</v>
+      </c>
+      <c r="E60">
+        <v>11239</v>
+      </c>
+      <c r="F60">
+        <v>29511</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>471725</v>
+      </c>
+      <c r="C61">
+        <v>390072</v>
+      </c>
+      <c r="D61">
+        <v>85937</v>
+      </c>
+      <c r="E61">
+        <v>304135</v>
+      </c>
+      <c r="F61">
+        <v>81653</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>18005</v>
+      </c>
+      <c r="C62">
+        <v>7317</v>
+      </c>
+      <c r="D62">
+        <v>1984</v>
+      </c>
+      <c r="E62">
+        <v>5333</v>
+      </c>
+      <c r="F62">
+        <v>10688</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>11252</v>
+      </c>
+      <c r="C63">
+        <v>3787</v>
+      </c>
+      <c r="D63">
+        <v>1850</v>
+      </c>
+      <c r="E63">
+        <v>1937</v>
+      </c>
+      <c r="F63">
+        <v>7465</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/Work_Residence/Work_Residence.xlsx
+++ b/dataset/Work_Residence/Work_Residence.xlsx
@@ -19,7 +19,7 @@
     <t>Geographic</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Total_Labor</t>
   </si>
   <si>
     <t>With_Residence</t>
@@ -34,190 +34,190 @@
     <t>No_Residence</t>
   </si>
   <si>
-    <t>Albany County, New York</t>
-  </si>
-  <si>
-    <t>Allegany County, New York</t>
-  </si>
-  <si>
-    <t>Bronx County, New York</t>
-  </si>
-  <si>
-    <t>Broome County, New York</t>
-  </si>
-  <si>
-    <t>Cattaraugus County, New York</t>
-  </si>
-  <si>
-    <t>Cayuga County, New York</t>
-  </si>
-  <si>
-    <t>Chautauqua County, New York</t>
-  </si>
-  <si>
-    <t>Chemung County, New York</t>
-  </si>
-  <si>
-    <t>Chenango County, New York</t>
-  </si>
-  <si>
-    <t>Clinton County, New York</t>
-  </si>
-  <si>
-    <t>Columbia County, New York</t>
-  </si>
-  <si>
-    <t>Cortland County, New York</t>
-  </si>
-  <si>
-    <t>Delaware County, New York</t>
-  </si>
-  <si>
-    <t>Dutchess County, New York</t>
-  </si>
-  <si>
-    <t>Erie County, New York</t>
-  </si>
-  <si>
-    <t>Essex County, New York</t>
-  </si>
-  <si>
-    <t>Franklin County, New York</t>
-  </si>
-  <si>
-    <t>Fulton County, New York</t>
-  </si>
-  <si>
-    <t>Genesee County, New York</t>
-  </si>
-  <si>
-    <t>Greene County, New York</t>
-  </si>
-  <si>
-    <t>Hamilton County, New York</t>
-  </si>
-  <si>
-    <t>Herkimer County, New York</t>
-  </si>
-  <si>
-    <t>Jefferson County, New York</t>
-  </si>
-  <si>
-    <t>Kings County, New York</t>
-  </si>
-  <si>
-    <t>Lewis County, New York</t>
-  </si>
-  <si>
-    <t>Livingston County, New York</t>
-  </si>
-  <si>
-    <t>Madison County, New York</t>
-  </si>
-  <si>
-    <t>Monroe County, New York</t>
-  </si>
-  <si>
-    <t>Montgomery County, New York</t>
-  </si>
-  <si>
-    <t>Nassau County, New York</t>
-  </si>
-  <si>
-    <t>New York County, New York</t>
-  </si>
-  <si>
-    <t>Niagara County, New York</t>
-  </si>
-  <si>
-    <t>Oneida County, New York</t>
-  </si>
-  <si>
-    <t>Onondaga County, New York</t>
-  </si>
-  <si>
-    <t>Ontario County, New York</t>
-  </si>
-  <si>
-    <t>Orange County, New York</t>
-  </si>
-  <si>
-    <t>Orleans County, New York</t>
-  </si>
-  <si>
-    <t>Oswego County, New York</t>
-  </si>
-  <si>
-    <t>Otsego County, New York</t>
-  </si>
-  <si>
-    <t>Putnam County, New York</t>
-  </si>
-  <si>
-    <t>Queens County, New York</t>
-  </si>
-  <si>
-    <t>Rensselaer County, New York</t>
-  </si>
-  <si>
-    <t>Richmond County, New York</t>
-  </si>
-  <si>
-    <t>Rockland County, New York</t>
-  </si>
-  <si>
-    <t>St. Lawrence County, New York</t>
-  </si>
-  <si>
-    <t>Saratoga County, New York</t>
-  </si>
-  <si>
-    <t>Schenectady County, New York</t>
-  </si>
-  <si>
-    <t>Schoharie County, New York</t>
-  </si>
-  <si>
-    <t>Schuyler County, New York</t>
-  </si>
-  <si>
-    <t>Seneca County, New York</t>
-  </si>
-  <si>
-    <t>Steuben County, New York</t>
-  </si>
-  <si>
-    <t>Suffolk County, New York</t>
-  </si>
-  <si>
-    <t>Sullivan County, New York</t>
-  </si>
-  <si>
-    <t>Tioga County, New York</t>
-  </si>
-  <si>
-    <t>Tompkins County, New York</t>
-  </si>
-  <si>
-    <t>Ulster County, New York</t>
-  </si>
-  <si>
-    <t>Warren County, New York</t>
-  </si>
-  <si>
-    <t>Washington County, New York</t>
-  </si>
-  <si>
-    <t>Wayne County, New York</t>
-  </si>
-  <si>
-    <t>Westchester County, New York</t>
-  </si>
-  <si>
-    <t>Wyoming County, New York</t>
-  </si>
-  <si>
-    <t>Yates County, New York</t>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Allegany</t>
+  </si>
+  <si>
+    <t>Bronx</t>
+  </si>
+  <si>
+    <t>Broome</t>
+  </si>
+  <si>
+    <t>Cattaraugus</t>
+  </si>
+  <si>
+    <t>Cayuga</t>
+  </si>
+  <si>
+    <t>Chautauqua</t>
+  </si>
+  <si>
+    <t>Chemung</t>
+  </si>
+  <si>
+    <t>Chenango</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Cortland</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Dutchess</t>
+  </si>
+  <si>
+    <t>Erie</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Fulton</t>
+  </si>
+  <si>
+    <t>Genesee</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Herkimer</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Kings</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Oneida</t>
+  </si>
+  <si>
+    <t>Onondaga</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Orleans</t>
+  </si>
+  <si>
+    <t>Oswego</t>
+  </si>
+  <si>
+    <t>Otsego</t>
+  </si>
+  <si>
+    <t>Putnam</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>Rensselaer</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Rockland</t>
+  </si>
+  <si>
+    <t>St. Lawrence</t>
+  </si>
+  <si>
+    <t>Saratoga</t>
+  </si>
+  <si>
+    <t>Schenectady</t>
+  </si>
+  <si>
+    <t>Schoharie</t>
+  </si>
+  <si>
+    <t>Schuyler</t>
+  </si>
+  <si>
+    <t>Seneca</t>
+  </si>
+  <si>
+    <t>Steuben</t>
+  </si>
+  <si>
+    <t>Suffolk</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>Tioga</t>
+  </si>
+  <si>
+    <t>Tompkins</t>
+  </si>
+  <si>
+    <t>Ulster</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Westchester</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Yates</t>
   </si>
 </sst>
 </file>
@@ -225,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -239,9 +239,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,27 +271,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,6 +307,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -314,74 +376,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,19 +392,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,163 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +583,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,58 +663,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,21 +683,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,130 +706,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,17 +1159,17 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="37.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="19.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="47.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="71.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="77.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="44.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="13.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="20.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="16.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="22.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/dataset/Work_Residence/Work_Residence.xlsx
+++ b/dataset/Work_Residence/Work_Residence.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Geographic</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Worked_outside_PoR</t>
-  </si>
-  <si>
-    <t>No_Residence</t>
   </si>
   <si>
     <t>Albany</t>
@@ -225,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -236,13 +233,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,18 +252,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,14 +277,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +319,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -336,25 +334,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,13 +379,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,6 +389,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,7 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,18 +497,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,25 +527,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,97 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,35 +583,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,16 +643,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,7 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,82 +703,94 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,46 +799,34 @@
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,23 +1156,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="44.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="13.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="20.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="19.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="22.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1191,13 +1187,10 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>157933</v>
@@ -1211,13 +1204,10 @@
       <c r="E2" s="1">
         <v>32869</v>
       </c>
-      <c r="F2" s="1">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>19545</v>
@@ -1231,13 +1221,10 @@
       <c r="E3" s="1">
         <v>5531</v>
       </c>
-      <c r="F3" s="1">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>582554</v>
@@ -1251,13 +1238,10 @@
       <c r="E4" s="1">
         <v>322199</v>
       </c>
-      <c r="F4" s="1">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>84232</v>
@@ -1271,13 +1255,10 @@
       <c r="E5" s="1">
         <v>7861</v>
       </c>
-      <c r="F5" s="1">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>32891</v>
@@ -1291,13 +1272,10 @@
       <c r="E6" s="1">
         <v>8814</v>
       </c>
-      <c r="F6" s="1">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>35549</v>
@@ -1311,13 +1289,10 @@
       <c r="E7" s="1">
         <v>13842</v>
       </c>
-      <c r="F7" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>54703</v>
@@ -1331,13 +1306,10 @@
       <c r="E8" s="1">
         <v>3570</v>
       </c>
-      <c r="F8" s="1">
-        <v>2758</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>36723</v>
@@ -1351,13 +1323,10 @@
       <c r="E9" s="1">
         <v>7741</v>
       </c>
-      <c r="F9" s="1">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>21140</v>
@@ -1371,13 +1340,10 @@
       <c r="E10" s="1">
         <v>6810</v>
       </c>
-      <c r="F10" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>34916</v>
@@ -1391,13 +1357,10 @@
       <c r="E11" s="1">
         <v>1717</v>
       </c>
-      <c r="F11" s="1">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>28927</v>
@@ -1411,13 +1374,10 @@
       <c r="E12" s="1">
         <v>9250</v>
       </c>
-      <c r="F12" s="1">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>22493</v>
@@ -1431,13 +1391,10 @@
       <c r="E13" s="1">
         <v>6470</v>
       </c>
-      <c r="F13" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>19552</v>
@@ -1451,13 +1408,10 @@
       <c r="E14" s="1">
         <v>5165</v>
       </c>
-      <c r="F14" s="1">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>142352</v>
@@ -1471,13 +1425,10 @@
       <c r="E15" s="1">
         <v>44507</v>
       </c>
-      <c r="F15" s="1">
-        <v>5103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>441864</v>
@@ -1491,13 +1442,10 @@
       <c r="E16" s="1">
         <v>25145</v>
       </c>
-      <c r="F16" s="1">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>16919</v>
@@ -1511,13 +1459,10 @@
       <c r="E17" s="1">
         <v>3792</v>
       </c>
-      <c r="F17" s="1">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>18859</v>
@@ -1531,13 +1476,10 @@
       <c r="E18" s="1">
         <v>3953</v>
       </c>
-      <c r="F18" s="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>24040</v>
@@ -1551,13 +1493,10 @@
       <c r="E19" s="1">
         <v>10284</v>
       </c>
-      <c r="F19" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>28903</v>
@@ -1571,13 +1510,10 @@
       <c r="E20" s="1">
         <v>11285</v>
       </c>
-      <c r="F20" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>19999</v>
@@ -1591,13 +1527,10 @@
       <c r="E21" s="1">
         <v>8474</v>
       </c>
-      <c r="F21" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>1767</v>
@@ -1611,13 +1544,10 @@
       <c r="E22" s="1">
         <v>639</v>
       </c>
-      <c r="F22" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>28042</v>
@@ -1631,13 +1561,10 @@
       <c r="E23" s="1">
         <v>13200</v>
       </c>
-      <c r="F23" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>51958</v>
@@ -1651,13 +1578,10 @@
       <c r="E24" s="1">
         <v>2457</v>
       </c>
-      <c r="F24" s="1">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>1197935</v>
@@ -1671,13 +1595,10 @@
       <c r="E25" s="1">
         <v>586472</v>
       </c>
-      <c r="F25" s="1">
-        <v>25929</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>11754</v>
@@ -1691,13 +1612,10 @@
       <c r="E26" s="1">
         <v>4162</v>
       </c>
-      <c r="F26" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>28667</v>
@@ -1711,13 +1629,10 @@
       <c r="E27" s="1">
         <v>12999</v>
       </c>
-      <c r="F27" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>33349</v>
@@ -1731,13 +1646,10 @@
       <c r="E28" s="1">
         <v>16796</v>
       </c>
-      <c r="F28" s="1">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>358706</v>
@@ -1751,13 +1663,10 @@
       <c r="E29" s="1">
         <v>21554</v>
       </c>
-      <c r="F29" s="1">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
         <v>21234</v>
@@ -1771,13 +1680,10 @@
       <c r="E30" s="1">
         <v>9750</v>
       </c>
-      <c r="F30" s="1">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
         <v>675702</v>
@@ -1791,13 +1697,10 @@
       <c r="E31" s="1">
         <v>284883</v>
       </c>
-      <c r="F31" s="1">
-        <v>7621</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
         <v>887191</v>
@@ -1811,13 +1714,10 @@
       <c r="E32" s="1">
         <v>101733</v>
       </c>
-      <c r="F32" s="1">
-        <v>35685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <v>98856</v>
@@ -1831,13 +1731,10 @@
       <c r="E33" s="1">
         <v>39111</v>
       </c>
-      <c r="F33" s="1">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1">
         <v>100151</v>
@@ -1851,13 +1748,10 @@
       <c r="E34" s="1">
         <v>12056</v>
       </c>
-      <c r="F34" s="1">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
         <v>218911</v>
@@ -1871,13 +1765,10 @@
       <c r="E35" s="1">
         <v>14453</v>
       </c>
-      <c r="F35" s="1">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1">
         <v>54024</v>
@@ -1891,13 +1782,10 @@
       <c r="E36" s="1">
         <v>20803</v>
       </c>
-      <c r="F36" s="1">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1">
         <v>176767</v>
@@ -1911,13 +1799,10 @@
       <c r="E37" s="1">
         <v>46393</v>
       </c>
-      <c r="F37" s="1">
-        <v>12157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1">
         <v>17502</v>
@@ -1931,13 +1816,10 @@
       <c r="E38" s="1">
         <v>7473</v>
       </c>
-      <c r="F38" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1">
         <v>53051</v>
@@ -1951,13 +1833,10 @@
       <c r="E39" s="1">
         <v>21151</v>
       </c>
-      <c r="F39" s="1">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
         <v>27257</v>
@@ -1971,13 +1850,10 @@
       <c r="E40" s="1">
         <v>5552</v>
       </c>
-      <c r="F40" s="1">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
         <v>49793</v>
@@ -1991,13 +1867,10 @@
       <c r="E41" s="1">
         <v>30179</v>
       </c>
-      <c r="F41" s="1">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
         <v>1101747</v>
@@ -2011,13 +1884,10 @@
       <c r="E42" s="1">
         <v>611804</v>
       </c>
-      <c r="F42" s="1">
-        <v>18789</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1">
         <v>79756</v>
@@ -2031,13 +1901,10 @@
       <c r="E43" s="1">
         <v>42591</v>
       </c>
-      <c r="F43" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1">
         <v>211171</v>
@@ -2051,13 +1918,10 @@
       <c r="E44" s="1">
         <v>91437</v>
       </c>
-      <c r="F44" s="1">
-        <v>14554</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1">
         <v>144319</v>
@@ -2071,13 +1935,10 @@
       <c r="E45" s="1">
         <v>38980</v>
       </c>
-      <c r="F45" s="1">
-        <v>17224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1">
         <v>42818</v>
@@ -2091,13 +1952,10 @@
       <c r="E46" s="1">
         <v>4569</v>
       </c>
-      <c r="F46" s="1">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1">
         <v>119605</v>
@@ -2111,13 +1969,10 @@
       <c r="E47" s="1">
         <v>49694</v>
       </c>
-      <c r="F47" s="1">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1">
         <v>71932</v>
@@ -2131,13 +1986,10 @@
       <c r="E48" s="1">
         <v>33432</v>
       </c>
-      <c r="F48" s="1">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1">
         <v>13883</v>
@@ -2151,13 +2003,10 @@
       <c r="E49" s="1">
         <v>6044</v>
       </c>
-      <c r="F49" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1">
         <v>8130</v>
@@ -2171,13 +2020,10 @@
       <c r="E50" s="1">
         <v>4530</v>
       </c>
-      <c r="F50" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1">
         <v>14992</v>
@@ -2191,13 +2037,10 @@
       <c r="E51" s="1">
         <v>6058</v>
       </c>
-      <c r="F51" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
         <v>42052</v>
@@ -2211,13 +2054,10 @@
       <c r="E52" s="1">
         <v>9367</v>
       </c>
-      <c r="F52" s="1">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1">
         <v>739441</v>
@@ -2231,13 +2071,10 @@
       <c r="E53" s="1">
         <v>172235</v>
       </c>
-      <c r="F53" s="1">
-        <v>6081</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1">
         <v>32218</v>
@@ -2251,13 +2088,10 @@
       <c r="E54" s="1">
         <v>9261</v>
       </c>
-      <c r="F54" s="1">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1">
         <v>22388</v>
@@ -2271,13 +2105,10 @@
       <c r="E55" s="1">
         <v>11252</v>
       </c>
-      <c r="F55" s="1">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1">
         <v>49101</v>
@@ -2291,13 +2122,10 @@
       <c r="E56" s="1">
         <v>4034</v>
       </c>
-      <c r="F56" s="1">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1">
         <v>85533</v>
@@ -2311,13 +2139,10 @@
       <c r="E57" s="1">
         <v>27559</v>
       </c>
-      <c r="F57" s="1">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1">
         <v>31330</v>
@@ -2331,13 +2156,10 @@
       <c r="E58" s="1">
         <v>9638</v>
       </c>
-      <c r="F58" s="1">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1">
         <v>28433</v>
@@ -2351,13 +2173,10 @@
       <c r="E59" s="1">
         <v>13243</v>
       </c>
-      <c r="F59" s="1">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1">
         <v>43773</v>
@@ -2371,13 +2190,10 @@
       <c r="E60" s="1">
         <v>21594</v>
       </c>
-      <c r="F60" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1">
         <v>471725</v>
@@ -2391,13 +2207,10 @@
       <c r="E61" s="1">
         <v>156093</v>
       </c>
-      <c r="F61" s="1">
-        <v>27633</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1">
         <v>18005</v>
@@ -2411,13 +2224,10 @@
       <c r="E62" s="1">
         <v>8466</v>
       </c>
-      <c r="F62" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1">
         <v>11252</v>
@@ -2430,9 +2240,6 @@
       </c>
       <c r="E63" s="1">
         <v>3824</v>
-      </c>
-      <c r="F63" s="1">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
